--- a/Project Data/Project Data.xlsx
+++ b/Project Data/Project Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PH567 Course Project\PH567_Course_Project\Project Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CBF1D0-7F8E-4783-A139-D6202950EDEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5800E06C-7AA0-4746-88E0-3813CDD334CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2628" windowWidth="17280" windowHeight="8964" xr2:uid="{F994F3E7-1190-4574-8310-F7E6BD0668B4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F994F3E7-1190-4574-8310-F7E6BD0668B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Image</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>rH, rV, rD</t>
-  </si>
-  <si>
-    <t>0.9696470992206567,</t>
-  </si>
-  <si>
-    <t>0.017321470745145385,</t>
   </si>
   <si>
     <t>Strogatz</t>
@@ -84,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,17 +86,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177CCF92-9781-498F-A37E-645FCAA11E5E}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,7 +445,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -452,113 +462,130 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>7.44506034611803</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="3">
+        <v>7.44</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.96963999999999995</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7.99</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.7319999999999999E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>7.44</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.96963999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3">
+        <v>0.98387000000000002</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3">
+        <v>-1.9499999999999999E-3</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3">
+        <v>0.98387000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3">
+        <v>0.95596000000000003</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3">
+        <v>-1.41E-3</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="3">
+        <v>0.95596000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
-        <v>7.9991488006173403</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1">
-        <v>7.44506034611803</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.96964709922065595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C4" s="1">
-        <v>0.98387870591636295</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-1.9564553948609302E-3</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.98387870591636295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="1">
-        <v>0.95596084602668796</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-1.4157861918340699E-3</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.95596084602668796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>7.08703565207301</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.97497911792448699</v>
-      </c>
-      <c r="D6" s="1">
-        <v>7.9993417006876504</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3.0391415988294E-2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>7.08703565207301</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.97497911792448699</v>
+      <c r="B6" s="3">
+        <v>7.08</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.97497</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7.99</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3.039E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>7.08</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.97497</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="1">
-        <v>0.97750696793554803</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2.6855495035867601E-3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.97750696793554803</v>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3">
+        <v>0.97750000000000004</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3">
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="3">
+        <v>0.97750000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="1">
-        <v>0.95970309655377195</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-3.22453892415406E-4</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.95970309655377195</v>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3">
+        <v>0.9597</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3">
+        <v>-3.2000000000000003E-4</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="3">
+        <v>0.9597</v>
       </c>
     </row>
   </sheetData>
